--- a/Assets/Graphics/Animation task list.xlsx
+++ b/Assets/Graphics/Animation task list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Animation</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Dodging?</t>
+  </si>
+  <si>
+    <t>Top of arc</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +625,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="14"/>
@@ -632,78 +635,78 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="14"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
@@ -713,7 +716,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="5"/>
@@ -721,10 +724,10 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -732,7 +735,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="14"/>
@@ -742,13 +745,23 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="14"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
